--- a/data files/Purchase Order/TROIKAA-HOSPITROY.xlsx
+++ b/data files/Purchase Order/TROIKAA-HOSPITROY.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A8189-2DE4-49C6-BA29-E8100916FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>To,</t>
   </si>
@@ -114,11 +115,14 @@
   <si>
     <t>Inj.Cathflush 2ml</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +284,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -291,7 +295,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,7 +314,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -376,6 +379,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,7 +404,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 1"/>
+        <xdr:cNvPr id="3" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -428,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +480,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -540,7 +552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -713,24 +725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" style="32" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" style="31" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -738,8 +750,8 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.5">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="13"/>
@@ -749,21 +761,21 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -771,8 +783,8 @@
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11"/>
@@ -784,8 +796,8 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="11"/>
@@ -796,29 +808,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11"/>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -827,42 +839,42 @@
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="16"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="16"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -870,129 +882,131 @@
       <c r="C14" s="7"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>300</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>200</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>150</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="33"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="33"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="33"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
@@ -1004,24 +1018,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/TROIKAA-HOSPITROY.xlsx
+++ b/data files/Purchase Order/TROIKAA-HOSPITROY.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A8189-2DE4-49C6-BA29-E8100916FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D5940-D270-4E58-ACAF-80E716FA1247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -728,20 +728,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" style="31" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -750,7 +750,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>17</v>
       </c>
@@ -774,7 +774,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -783,7 +783,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
@@ -796,7 +796,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>18</v>
       </c>
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="11"/>
       <c r="C7" s="30"/>
@@ -816,7 +816,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -843,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="16"/>
       <c r="D11" s="1"/>
@@ -861,7 +861,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="20"/>
       <c r="D12" s="16"/>
@@ -869,12 +869,12 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -882,12 +882,12 @@
       <c r="C14" s="7"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
@@ -915,7 +915,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -932,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -966,13 +966,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="34"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -980,7 +981,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -988,25 +989,25 @@
       <c r="C23" s="32"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="33"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="33"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
@@ -1023,7 +1024,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1035,7 +1036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
